--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T08:26:42+00:00</t>
+    <t>2024-03-25T09:35:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -631,7 +631,7 @@
 </t>
   </si>
   <si>
-    <t>The medication's code identifier</t>
+    <t>The medication's label</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -753,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t>The medication's type and label</t>
+    <t>The medication's code and label</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
@@ -2574,13 +2574,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>75</v>
@@ -3268,7 +3268,7 @@
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>75</v>
@@ -3602,13 +3602,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>75</v>
@@ -3948,7 +3948,7 @@
         <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>75</v>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/StructureDefinition-oncology-medication.xlsx
+++ b/main/ig/StructureDefinition-oncology-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T13:54:15+00:00</t>
+    <t>2024-06-11T08:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,33 +436,69 @@
     <t>Medication.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Medication.extension:medicationType</t>
+  </si>
+  <si>
+    <t>medicationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/medication-type}
+</t>
+  </si>
+  <si>
+    <t>Medication type</t>
+  </si>
+  <si>
+    <t>Adds a type to a Medication resource</t>
+  </si>
+  <si>
+    <t>Medication.extension:medicationIsVehicle</t>
+  </si>
+  <si>
+    <t>medicationIsVehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/medication-is-vehicle}
+</t>
+  </si>
+  <si>
+    <t>Medication Is Vehicle</t>
+  </si>
+  <si>
+    <t>Indicates whether the medication is a vehicle.</t>
+  </si>
+  <si>
+    <t>Medication.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Medication.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -470,6 +506,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -520,17 +559,13 @@
     <t>Medication.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1365,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1374,9 +1409,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.39453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.6640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.39453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.46875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1384,7 +1419,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="40.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.9296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2340,7 +2375,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2359,17 +2394,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2406,16 +2439,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2439,7 +2470,7 @@
         <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>75</v>
@@ -2450,43 +2481,41 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2534,7 +2563,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2555,7 +2584,7 @@
         <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>75</v>
@@ -2566,18 +2595,20 @@
         <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>87</v>
@@ -2586,20 +2617,18 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>149</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2648,7 +2677,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2660,16 +2689,16 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>75</v>
@@ -2677,42 +2706,46 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2760,19 +2793,19 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -2781,7 +2814,7 @@
         <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>75</v>
@@ -2789,42 +2822,42 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2862,19 +2895,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2886,16 +2919,16 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>75</v>
@@ -2923,13 +2956,13 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>165</v>
@@ -2937,12 +2970,8 @@
       <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2966,13 +2995,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -2990,7 +3019,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2999,10 +3028,10 @@
         <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3011,29 +3040,29 @@
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3042,23 +3071,21 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3082,43 +3109,43 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -3127,18 +3154,18 @@
         <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3155,25 +3182,25 @@
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3186,7 +3213,7 @@
         <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>75</v>
@@ -3198,13 +3225,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3222,7 +3249,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3243,18 +3270,18 @@
         <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3262,7 +3289,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3277,18 +3304,20 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3300,7 +3329,7 @@
         <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>75</v>
@@ -3312,13 +3341,13 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3336,7 +3365,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3345,7 +3374,7 @@
         <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
@@ -3357,18 +3386,18 @@
         <v>75</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3391,16 +3420,20 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3412,7 +3445,7 @@
         <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>75</v>
@@ -3448,7 +3481,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3469,18 +3502,18 @@
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3488,7 +3521,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3503,16 +3536,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3526,7 +3559,7 @@
         <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>75</v>
@@ -3562,7 +3595,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3571,7 +3604,7 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>98</v>
@@ -3583,18 +3616,18 @@
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3602,13 +3635,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>75</v>
@@ -3617,17 +3650,15 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3652,13 +3683,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -3691,24 +3722,24 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3728,18 +3759,20 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3788,7 +3821,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3797,10 +3830,10 @@
         <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
@@ -3809,50 +3842,50 @@
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>75</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3878,63 +3911,63 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3942,7 +3975,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -3954,23 +3987,19 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -4018,19 +4047,19 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
@@ -4039,29 +4068,29 @@
         <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4070,23 +4099,21 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4122,31 +4149,31 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
@@ -4155,18 +4182,18 @@
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4174,7 +4201,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4183,24 +4210,26 @@
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4224,13 +4253,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4254,7 +4283,7 @@
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
@@ -4269,18 +4298,18 @@
         <v>75</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4303,16 +4332,20 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4360,7 +4393,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4381,10 +4414,10 @@
         <v>75</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -4409,13 +4442,13 @@
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>260</v>
@@ -4450,7 +4483,7 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="Y27" t="s" s="2">
         <v>263</v>
@@ -4489,24 +4522,24 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>267</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4529,13 +4562,13 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4586,7 +4619,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4607,7 +4640,7 @@
         <v>75</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>75</v>
@@ -4615,10 +4648,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4629,7 +4662,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4641,16 +4674,16 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4676,13 +4709,13 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4700,13 +4733,13 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -4715,16 +4748,16 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -4752,16 +4785,16 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>154</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4812,7 +4845,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4821,10 +4854,10 @@
         <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
@@ -4833,7 +4866,7 @@
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>75</v>
@@ -4841,14 +4874,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4867,16 +4900,16 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4926,7 +4959,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4938,7 +4971,7 @@
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
@@ -4947,7 +4980,7 @@
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -4955,46 +4988,42 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5042,19 +5071,19 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
@@ -5063,7 +5092,7 @@
         <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -5071,21 +5100,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5097,18 +5126,18 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>171</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5132,11 +5161,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5154,72 +5185,74 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>297</v>
+        <v>155</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5268,19 +5301,19 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -5289,7 +5322,7 @@
         <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>298</v>
+        <v>131</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5297,10 +5330,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5308,7 +5341,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5323,16 +5356,18 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5356,13 +5391,11 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5380,10 +5413,10 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
@@ -5395,24 +5428,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5435,16 +5468,18 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5492,7 +5527,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5507,13 +5542,13 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>75</v>
@@ -5521,10 +5556,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5547,13 +5582,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5580,13 +5615,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5604,7 +5639,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5613,41 +5648,41 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5659,17 +5694,15 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5718,28 +5751,28 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -5747,46 +5780,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5834,19 +5863,19 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5855,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>75</v>
@@ -5863,21 +5892,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5889,15 +5918,17 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5946,71 +5977,75 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6058,39 +6093,39 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>325</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6113,7 +6148,7 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>328</v>
@@ -6170,7 +6205,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6185,20 +6220,244 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN42">
+  <autoFilter ref="A1:AN44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6208,7 +6467,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI41">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
